--- a/data_in/dimensionless/Decomposition Factors Industrial Energy Demand.xlsx
+++ b/data_in/dimensionless/Decomposition Factors Industrial Energy Demand.xlsx
@@ -35,20 +35,23 @@
     <t>Strom Eigenerzeugung</t>
   </si>
   <si>
-    <t>Erdgas nicht-energetisch (bezogen auf Alle Gase)</t>
+    <t>Anteil Erdgas</t>
   </si>
   <si>
-    <t>Erdgas energetisch (bezogen auf Alle Gase)</t>
+    <t>Davon energetisch</t>
   </si>
   <si>
-    <t>Anteil Erdgas</t>
+    <t>davon nichtenergetisch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +63,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,17 +89,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
@@ -372,15 +385,15 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
@@ -390,13 +403,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -409,19 +422,19 @@
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>0.76903225806451614</v>
-      </c>
-      <c r="C2">
-        <v>0.76903225806451614</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.8530511185087829</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.14694888149121696</v>
       </c>
     </row>
@@ -429,19 +442,19 @@
       <c r="A3">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.99411135922509075</v>
-      </c>
-      <c r="D3">
-        <v>5.8886407749092293E-3</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.8035757763108361</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.19642422368916387</v>
       </c>
     </row>
@@ -449,19 +462,19 @@
       <c r="A4">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.80341277766794839</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.19658722233205858</v>
       </c>
     </row>
@@ -469,19 +482,19 @@
       <c r="A5">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.94822625326804144</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>5.1773746731958115E-2</v>
       </c>
     </row>
@@ -489,19 +502,19 @@
       <c r="A6">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.80356785225706584</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0.19643214774292631</v>
       </c>
     </row>
@@ -509,19 +522,19 @@
       <c r="A7">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0.99978559157312763</v>
-      </c>
-      <c r="D7">
-        <v>2.144084268723701E-4</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="2">
+        <v>0.99567970520232529</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.8265456679332992</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.17345433206670016</v>
       </c>
     </row>
@@ -529,19 +542,19 @@
       <c r="A8">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="B8" s="2">
+        <v>0.99260482305098929</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
         <v>0.96201349158738247</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>3.7986508412618102E-2</v>
       </c>
     </row>
@@ -549,19 +562,19 @@
       <c r="A9">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.96200466420299757</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>3.7995335797002844E-2</v>
       </c>
     </row>
@@ -569,19 +582,19 @@
       <c r="A10">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="2">
+        <v>0.99703453292647826</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.94774651939633092</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>5.2253480603668717E-2</v>
       </c>
     </row>
@@ -589,19 +602,19 @@
       <c r="A11">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="B11" s="2">
+        <v>0.99909713971440028</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.96201172376125632</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>3.798827623874302E-2</v>
       </c>
     </row>
@@ -609,19 +622,19 @@
       <c r="A12">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.96201115052036135</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>3.7988849479639132E-2</v>
       </c>
     </row>
@@ -629,19 +642,19 @@
       <c r="A13">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0.97233934985699955</v>
-      </c>
-      <c r="D13">
-        <v>2.7660650143000478E-2</v>
-      </c>
-      <c r="E13">
+      <c r="B13" s="2">
+        <v>0.99183633950768557</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.57469107761410931</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>0.42530892238589074</v>
       </c>
     </row>
@@ -649,19 +662,19 @@
       <c r="A14">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0.99999999763248892</v>
-      </c>
-      <c r="D14">
-        <v>2.3675110776188978E-9</v>
-      </c>
-      <c r="E14">
+      <c r="B14" s="2">
+        <v>0.99445711538340686</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
         <v>0.6437640208105696</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>0.35623597918943001</v>
       </c>
     </row>
@@ -669,19 +682,19 @@
       <c r="A15">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0.99952209648178791</v>
-      </c>
-      <c r="D15">
-        <v>4.7790351821204728E-4</v>
-      </c>
-      <c r="E15">
+      <c r="B15" s="2">
+        <v>0.99921357547765088</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.96199604875491385</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>3.8003951245088825E-2</v>
       </c>
     </row>
@@ -689,19 +702,19 @@
       <c r="A16">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>0.81505033676915195</v>
-      </c>
-      <c r="C16">
-        <v>0.74789607302979322</v>
-      </c>
-      <c r="D16">
-        <v>6.7154263739358816E-2</v>
-      </c>
-      <c r="E16">
+      <c r="B16" s="2">
+        <v>0.81815930854329577</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="E16" s="2">
         <v>4.6351961514176802E-2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>0.95364803848582236</v>
       </c>
     </row>
@@ -709,19 +722,19 @@
       <c r="A17">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0.73597484538776647</v>
-      </c>
-      <c r="D17">
-        <v>0.26402515461223347</v>
-      </c>
-      <c r="E17">
+      <c r="B17" s="2">
+        <v>0.94108576449204229</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.72195777729865551</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.27804222270134449</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.71726722131254583</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>0.28273277868745234</v>
       </c>
     </row>
@@ -729,19 +742,19 @@
       <c r="A18">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0.98499458814885521</v>
-      </c>
-      <c r="D18">
-        <v>1.5005411851144748E-2</v>
-      </c>
-      <c r="E18">
+      <c r="B18" s="2">
+        <v>0.99959105203998355</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
         <v>0.96201148915076085</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>3.79885108492427E-2</v>
       </c>
     </row>
@@ -749,19 +762,19 @@
       <c r="A19">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0.99415345838177149</v>
-      </c>
-      <c r="D19">
-        <v>5.8465416182284938E-3</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="2">
+        <v>0.98950290950630626</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
         <v>0.96200412533513091</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>3.7995874664867105E-2</v>
       </c>
     </row>
@@ -769,19 +782,19 @@
       <c r="A20">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0.99803513644044783</v>
-      </c>
-      <c r="D20">
-        <v>1.9648635595521718E-3</v>
-      </c>
-      <c r="E20">
+      <c r="B20" s="2">
+        <v>0.99497087997609468</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
         <v>0.97777881437713088</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>2.2221185622869115E-2</v>
       </c>
     </row>
@@ -789,19 +802,19 @@
       <c r="A21">
         <v>24</v>
       </c>
-      <c r="B21">
-        <v>0.48860323980524378</v>
-      </c>
-      <c r="C21">
-        <v>0.46586225104700807</v>
-      </c>
-      <c r="D21">
-        <v>2.2740988758235697E-2</v>
-      </c>
-      <c r="E21">
+      <c r="B21" s="2">
+        <v>0.44438218910457583</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="E21" s="2">
         <v>0.75602958350323191</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>0.24397041649676587</v>
       </c>
     </row>
@@ -809,19 +822,19 @@
       <c r="A22">
         <v>25</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0.99329793499240182</v>
-      </c>
-      <c r="D22">
-        <v>6.7020650075982763E-3</v>
-      </c>
-      <c r="E22">
+      <c r="B22" s="2">
+        <v>0.97993480148970968</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.99491806856571952</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5.0819314342804844E-3</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.96200686309048267</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>3.7993136909513829E-2</v>
       </c>
     </row>
@@ -829,19 +842,19 @@
       <c r="A23">
         <v>26</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0.99945526810952745</v>
-      </c>
-      <c r="D23">
-        <v>5.4473189047253513E-4</v>
-      </c>
-      <c r="E23">
+      <c r="B23" s="2">
+        <v>0.9983674333625091</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
         <v>0.96199928136701296</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>3.8000718632987165E-2</v>
       </c>
     </row>
@@ -849,19 +862,19 @@
       <c r="A24">
         <v>27</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0.9889992840968056</v>
-      </c>
-      <c r="D24">
-        <v>1.1000715903194415E-2</v>
-      </c>
-      <c r="E24">
+      <c r="B24" s="2">
+        <v>0.99348579938473958</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
         <v>0.96200419055300246</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>3.7995809446997923E-2</v>
       </c>
     </row>
@@ -869,19 +882,19 @@
       <c r="A25">
         <v>28</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0.99548574856262084</v>
-      </c>
-      <c r="D25">
-        <v>4.5142514373792755E-3</v>
-      </c>
-      <c r="E25">
+      <c r="B25" s="2">
+        <v>0.98725390686109127</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.99487600124532938</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5.1239987546706223E-3</v>
+      </c>
+      <c r="E25" s="2">
         <v>0.96201057308403171</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>3.7989426915974185E-2</v>
       </c>
     </row>
@@ -889,19 +902,19 @@
       <c r="A26">
         <v>29</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0.99700702566994825</v>
-      </c>
-      <c r="D26">
-        <v>2.9929743300518554E-3</v>
-      </c>
-      <c r="E26">
+      <c r="B26" s="2">
+        <v>0.99655290282840603</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.9973416215770442</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.6583784229557983E-3</v>
+      </c>
+      <c r="E26" s="2">
         <v>0.96201266921299056</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>3.7987330787004767E-2</v>
       </c>
     </row>
@@ -909,19 +922,19 @@
       <c r="A27">
         <v>30</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="B27" s="2">
+        <v>0.99891983122251127</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
         <v>0.96201323217146772</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>3.7986767828531644E-2</v>
       </c>
     </row>
@@ -929,19 +942,19 @@
       <c r="A28">
         <v>31</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="B28" s="2">
+        <v>0.98406928815607786</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
         <v>0.96201103461304815</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>3.7988965386950728E-2</v>
       </c>
     </row>
@@ -949,19 +962,19 @@
       <c r="A29">
         <v>32</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0.9999934057441745</v>
-      </c>
-      <c r="D29">
-        <v>6.5942558255023827E-6</v>
-      </c>
-      <c r="E29">
+      <c r="B29" s="2">
+        <v>0.99099497644234735</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
         <v>0.96199387089914079</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>3.8006129100857586E-2</v>
       </c>
     </row>
@@ -969,19 +982,19 @@
       <c r="A30">
         <v>33</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0.99975045023647602</v>
-      </c>
-      <c r="D30">
-        <v>2.4954976352395072E-4</v>
-      </c>
-      <c r="E30">
+      <c r="B30" s="2">
+        <v>0.98015637705879077</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
         <v>0.9620057269440897</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>3.7994273055909335E-2</v>
       </c>
     </row>
